--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1176943333333333</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N2">
-        <v>0.353083</v>
+        <v>3.54914</v>
       </c>
       <c r="O2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q2">
-        <v>3.182325976501222</v>
+        <v>7.382338969039998</v>
       </c>
       <c r="R2">
-        <v>28.640933788511</v>
+        <v>66.44105072135999</v>
       </c>
       <c r="S2">
-        <v>0.004136798483768834</v>
+        <v>0.01077896009584504</v>
       </c>
       <c r="T2">
-        <v>0.004136798483768835</v>
+        <v>0.01077896009584504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.183046666666667</v>
+        <v>0.718166</v>
       </c>
       <c r="N3">
-        <v>3.54914</v>
+        <v>2.154498</v>
       </c>
       <c r="O3">
-        <v>0.5859837360842608</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P3">
-        <v>0.5859837360842609</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q3">
-        <v>31.98828721926445</v>
+        <v>4.481433401927999</v>
       </c>
       <c r="R3">
-        <v>287.89458497338</v>
+        <v>40.33290061735199</v>
       </c>
       <c r="S3">
-        <v>0.04158250884546501</v>
+        <v>0.006543345139548721</v>
       </c>
       <c r="T3">
-        <v>0.04158250884546502</v>
+        <v>0.006543345139548721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>345.566579</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>1036.699737</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.718166</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N4">
-        <v>2.154498</v>
+        <v>3.54914</v>
       </c>
       <c r="O4">
-        <v>0.3557201990978286</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P4">
-        <v>0.3557201990978286</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q4">
-        <v>19.41842272700733</v>
+        <v>408.8213893973533</v>
       </c>
       <c r="R4">
-        <v>174.765804543066</v>
+        <v>3679.39250457618</v>
       </c>
       <c r="S4">
-        <v>0.02524257486110344</v>
+        <v>0.5969204964879907</v>
       </c>
       <c r="T4">
-        <v>0.02524257486110344</v>
+        <v>0.5969204964879908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1176943333333333</v>
+        <v>0.718166</v>
       </c>
       <c r="N5">
-        <v>0.353083</v>
+        <v>2.154498</v>
       </c>
       <c r="O5">
-        <v>0.05829606481791055</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P5">
-        <v>0.05829606481791055</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q5">
-        <v>40.67122813768567</v>
+        <v>248.174167774114</v>
       </c>
       <c r="R5">
-        <v>366.0410532391709</v>
+        <v>2233.567509967026</v>
       </c>
       <c r="S5">
-        <v>0.05286971734994094</v>
+        <v>0.3623593365836183</v>
       </c>
       <c r="T5">
-        <v>0.05286971734994095</v>
+        <v>0.3623593365836183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>345.566579</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H6">
-        <v>1036.699737</v>
+        <v>25.286216</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>3.54914</v>
       </c>
       <c r="O6">
-        <v>0.5859837360842608</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P6">
-        <v>0.5859837360842609</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q6">
-        <v>408.8213893973534</v>
+        <v>9.971591183804442</v>
       </c>
       <c r="R6">
-        <v>3679.39250457618</v>
+        <v>89.74432065424</v>
       </c>
       <c r="S6">
-        <v>0.5314388646164483</v>
+        <v>0.014559529698253</v>
       </c>
       <c r="T6">
-        <v>0.5314388646164485</v>
+        <v>0.014559529698253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>345.566579</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H7">
-        <v>1036.699737</v>
+        <v>25.286216</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>2.154498</v>
       </c>
       <c r="O7">
-        <v>0.3557201990978286</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P7">
-        <v>0.3557201990978286</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q7">
-        <v>248.174167774114</v>
+        <v>6.053233533285333</v>
       </c>
       <c r="R7">
-        <v>2233.567509967026</v>
+        <v>54.47910179956799</v>
       </c>
       <c r="S7">
-        <v>0.3226088491686461</v>
+        <v>0.008838331994744273</v>
       </c>
       <c r="T7">
-        <v>0.3226088491686461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8.428738666666668</v>
-      </c>
-      <c r="H8">
-        <v>25.286216</v>
-      </c>
-      <c r="I8">
-        <v>0.0221206866746274</v>
-      </c>
-      <c r="J8">
-        <v>0.02212068667462741</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1176943333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.353083</v>
-      </c>
-      <c r="O8">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="P8">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="Q8">
-        <v>0.9920147782142223</v>
-      </c>
-      <c r="R8">
-        <v>8.928133003928</v>
-      </c>
-      <c r="S8">
-        <v>0.001289548984200769</v>
-      </c>
-      <c r="T8">
-        <v>0.001289548984200769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.428738666666668</v>
-      </c>
-      <c r="H9">
-        <v>25.286216</v>
-      </c>
-      <c r="I9">
-        <v>0.0221206866746274</v>
-      </c>
-      <c r="J9">
-        <v>0.02212068667462741</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.183046666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.54914</v>
-      </c>
-      <c r="O9">
-        <v>0.5859837360842608</v>
-      </c>
-      <c r="P9">
-        <v>0.5859837360842609</v>
-      </c>
-      <c r="Q9">
-        <v>9.971591183804447</v>
-      </c>
-      <c r="R9">
-        <v>89.74432065424003</v>
-      </c>
-      <c r="S9">
-        <v>0.01296236262234749</v>
-      </c>
-      <c r="T9">
-        <v>0.01296236262234749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8.428738666666668</v>
-      </c>
-      <c r="H10">
-        <v>25.286216</v>
-      </c>
-      <c r="I10">
-        <v>0.0221206866746274</v>
-      </c>
-      <c r="J10">
-        <v>0.02212068667462741</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.718166</v>
-      </c>
-      <c r="N10">
-        <v>2.154498</v>
-      </c>
-      <c r="O10">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="P10">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="Q10">
-        <v>6.053233533285334</v>
-      </c>
-      <c r="R10">
-        <v>54.479101799568</v>
-      </c>
-      <c r="S10">
-        <v>0.007868775068079144</v>
-      </c>
-      <c r="T10">
-        <v>0.007868775068079146</v>
+        <v>0.008838331994744274</v>
       </c>
     </row>
   </sheetData>
